--- a/biology/Zoologie/Homopode_marqué/Homopode_marqué.xlsx
+++ b/biology/Zoologie/Homopode_marqué/Homopode_marqué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Homopode_marqu%C3%A9</t>
+          <t>Homopode_marqué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homopus signatus
-Homopus signatus, l'Homopode marqué[réf. nécessaire], est une espèce de tortues de la famille des Testudinidae[1].
+Homopus signatus, l'Homopode marqué[réf. nécessaire], est une espèce de tortues de la famille des Testudinidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Homopode_marqu%C3%A9</t>
+          <t>Homopode_marqué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mâles mesurent entre  6 et 8 cm, tandis que les femelles atteignent les 9,6 cm et pèse de 95 à 165 g. C'est la plus petite espèce connue de tortue.
 Cette tortue se nourrit de plantes grasses. Elle peut se glisser dans les fissures des rochers. Comme tous les chéloniens, cette tortue présente deux types d’écailles : de petites écailles épidermiques au niveau de la peau et les plaques dures de kératine qui forment sa carapace. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Homopode_marqu%C3%A9</t>
+          <t>Homopode_marqué</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud[1]. Elle se rencontre dans le désert du Karoo.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud. Elle se rencontre dans le désert du Karoo.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Homopode_marqu%C3%A9</t>
+          <t>Homopode_marqué</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gmelin, 1789 : Caroli a Linné Systema naturae. 13. ed., Tom 1 Pars 3. G. E. Beer, Lipsiae, p. 1033-1516.</t>
         </is>
